--- a/batch/data/xlsx/toc/保全/神の種類マニュアル.xlsx
+++ b/batch/data/xlsx/toc/保全/神の種類マニュアル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke.sakahara\repos\rag-hnsw\batch\data\xlsx\toc\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke.sakahara\Documents\目次\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97102C9E-648E-4B43-892B-02BF1819740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098A7EA1-DDCE-4D4E-8EEA-6FBA40BE8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2316" windowWidth="19332" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>マニュアル区分</t>
     <rPh sb="5" eb="7">
@@ -153,54 +153,6 @@
     <t>3.2. 嵐の神</t>
     <rPh sb="5" eb="6">
       <t>アラシノカミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4. 地下の神々</t>
-  </si>
-  <si>
-    <t>4. 地下の神々</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">チカ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5. 空想の神々</t>
-  </si>
-  <si>
-    <t>5. 空想の神々</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">クウソウノカミガミ </t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4.1. 冥界の主</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">メイカイノアルジ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.2. 財宝の守護者</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">ザイホウノシュゴシャ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5.1. 夢の創造者</t>
-    <rPh sb="5" eb="6">
-      <t>ユメノソウゾウシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5.2. 幻影の神</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンエイノカミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -594,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +589,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -652,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -663,7 +615,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -678,18 +630,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -704,18 +656,18 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -730,18 +682,18 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
@@ -756,18 +708,18 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
@@ -782,117 +734,13 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
